--- a/data/pca/factorExposure/factorExposure_2011-10-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.0135126909196721</v>
+        <v>0.01418271257599395</v>
       </c>
       <c r="C2">
-        <v>0.03167759265202882</v>
+        <v>-0.003312891682497369</v>
       </c>
       <c r="D2">
-        <v>-0.02098560689107964</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03241097458340644</v>
+      </c>
+      <c r="E2">
+        <v>-0.002534804775477648</v>
+      </c>
+      <c r="F2">
+        <v>0.03988013349141153</v>
+      </c>
+      <c r="G2">
+        <v>0.01523941130627649</v>
+      </c>
+      <c r="H2">
+        <v>0.01546453310357105</v>
+      </c>
+      <c r="I2">
+        <v>-0.01175820965200144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0783178820443107</v>
+        <v>0.09126250010531889</v>
       </c>
       <c r="C4">
-        <v>0.04731894784598115</v>
+        <v>0.04179724789408286</v>
       </c>
       <c r="D4">
-        <v>-0.09082340958955561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07528260822447778</v>
+      </c>
+      <c r="E4">
+        <v>-0.02846999502234027</v>
+      </c>
+      <c r="F4">
+        <v>0.04999686827809493</v>
+      </c>
+      <c r="G4">
+        <v>-0.0237652723395089</v>
+      </c>
+      <c r="H4">
+        <v>-0.02855806469507949</v>
+      </c>
+      <c r="I4">
+        <v>0.06674794122436294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.1145909691004366</v>
+        <v>0.1263345945876982</v>
       </c>
       <c r="C6">
-        <v>0.0470784607243714</v>
+        <v>-0.01031044225947221</v>
       </c>
       <c r="D6">
-        <v>-0.0106669798361056</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03421247873809725</v>
+      </c>
+      <c r="E6">
+        <v>0.01957190880076468</v>
+      </c>
+      <c r="F6">
+        <v>0.04629246836426475</v>
+      </c>
+      <c r="G6">
+        <v>-0.05416785618979252</v>
+      </c>
+      <c r="H6">
+        <v>0.1854884607953363</v>
+      </c>
+      <c r="I6">
+        <v>0.01493289368386143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.06210375315284027</v>
+        <v>0.06685584810405693</v>
       </c>
       <c r="C7">
-        <v>0.03896797002712864</v>
+        <v>0.0347855708982294</v>
       </c>
       <c r="D7">
-        <v>-0.03996344730003038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05340154416476928</v>
+      </c>
+      <c r="E7">
+        <v>-0.02392617015615528</v>
+      </c>
+      <c r="F7">
+        <v>0.05499155734619318</v>
+      </c>
+      <c r="G7">
+        <v>0.01980339128810703</v>
+      </c>
+      <c r="H7">
+        <v>-0.008454370046630244</v>
+      </c>
+      <c r="I7">
+        <v>0.0360128791913869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04018489832307069</v>
+        <v>0.04418591077366415</v>
       </c>
       <c r="C8">
-        <v>-0.009965034708877238</v>
+        <v>0.02745741972387713</v>
       </c>
       <c r="D8">
-        <v>-0.06769426947242065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.009661005538230216</v>
+      </c>
+      <c r="E8">
+        <v>-0.04066540293524709</v>
+      </c>
+      <c r="F8">
+        <v>0.06905500384385561</v>
+      </c>
+      <c r="G8">
+        <v>-0.05079305413076149</v>
+      </c>
+      <c r="H8">
+        <v>0.01987617884800975</v>
+      </c>
+      <c r="I8">
+        <v>0.114449606232417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07423035096226081</v>
+        <v>0.08341050221901249</v>
       </c>
       <c r="C9">
-        <v>0.03547299844694266</v>
+        <v>0.0394379422767954</v>
       </c>
       <c r="D9">
-        <v>-0.07951145213770587</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06075068419890418</v>
+      </c>
+      <c r="E9">
+        <v>-0.03150360529284201</v>
+      </c>
+      <c r="F9">
+        <v>0.04556007637376571</v>
+      </c>
+      <c r="G9">
+        <v>-0.04068890430781108</v>
+      </c>
+      <c r="H9">
+        <v>-0.02781549029886419</v>
+      </c>
+      <c r="I9">
+        <v>0.07461873359945784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.0241817579436008</v>
+        <v>0.0556473381124904</v>
       </c>
       <c r="C10">
-        <v>0.02923085922736144</v>
+        <v>-0.185420594074451</v>
       </c>
       <c r="D10">
-        <v>0.167914744539331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.05837399329434143</v>
+      </c>
+      <c r="E10">
+        <v>-0.01232516061305974</v>
+      </c>
+      <c r="F10">
+        <v>0.05576110993780599</v>
+      </c>
+      <c r="G10">
+        <v>0.04130339415982588</v>
+      </c>
+      <c r="H10">
+        <v>0.03673925399992191</v>
+      </c>
+      <c r="I10">
+        <v>-0.0518809967436305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.06981931160080518</v>
+        <v>0.07364305073708365</v>
       </c>
       <c r="C11">
-        <v>0.03254313339658908</v>
+        <v>0.03883025732038092</v>
       </c>
       <c r="D11">
-        <v>-0.05892623207885239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05001648013662516</v>
+      </c>
+      <c r="E11">
+        <v>-0.009770512381299062</v>
+      </c>
+      <c r="F11">
+        <v>0.04202782866033487</v>
+      </c>
+      <c r="G11">
+        <v>-0.04851095935120193</v>
+      </c>
+      <c r="H11">
+        <v>-0.05673532109230037</v>
+      </c>
+      <c r="I11">
+        <v>0.07483651668274129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.06462400860536335</v>
+        <v>0.07034742901039152</v>
       </c>
       <c r="C12">
-        <v>0.04415819349561905</v>
+        <v>0.02495912853805088</v>
       </c>
       <c r="D12">
-        <v>-0.05038864019300308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05175999389831545</v>
+      </c>
+      <c r="E12">
+        <v>-0.01953594766589278</v>
+      </c>
+      <c r="F12">
+        <v>0.03065121420729239</v>
+      </c>
+      <c r="G12">
+        <v>-0.02066826744123805</v>
+      </c>
+      <c r="H12">
+        <v>-0.02248890631085819</v>
+      </c>
+      <c r="I12">
+        <v>0.0947986959350781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06686598186386607</v>
+        <v>0.06688700549714989</v>
       </c>
       <c r="C13">
-        <v>0.04447906365485583</v>
+        <v>0.02007710380725357</v>
       </c>
       <c r="D13">
-        <v>-0.0618202338088135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0516932112239511</v>
+      </c>
+      <c r="E13">
+        <v>-0.05171808311108356</v>
+      </c>
+      <c r="F13">
+        <v>0.02506871100349619</v>
+      </c>
+      <c r="G13">
+        <v>-0.008208096104484407</v>
+      </c>
+      <c r="H13">
+        <v>-0.03009320454504999</v>
+      </c>
+      <c r="I13">
+        <v>0.09720951729672545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03007909021324109</v>
+        <v>0.04137331339896415</v>
       </c>
       <c r="C14">
-        <v>0.0310241381681959</v>
+        <v>-0.004848879392478942</v>
       </c>
       <c r="D14">
-        <v>-0.0009629762690351784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03378580924097441</v>
+      </c>
+      <c r="E14">
+        <v>-0.02189618790633308</v>
+      </c>
+      <c r="F14">
+        <v>0.02329269901786076</v>
+      </c>
+      <c r="G14">
+        <v>-0.02460392539719623</v>
+      </c>
+      <c r="H14">
+        <v>-0.06427308466438425</v>
+      </c>
+      <c r="I14">
+        <v>0.05765516271596582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.04560779333932032</v>
+        <v>0.04136027206226033</v>
       </c>
       <c r="C15">
-        <v>0.006008408360706442</v>
+        <v>0.01245537630047602</v>
       </c>
       <c r="D15">
-        <v>-0.02724129756037817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007245375502735424</v>
+      </c>
+      <c r="E15">
+        <v>-0.04210730851437033</v>
+      </c>
+      <c r="F15">
+        <v>0.0005844930994685827</v>
+      </c>
+      <c r="G15">
+        <v>-0.02345241159406334</v>
+      </c>
+      <c r="H15">
+        <v>-0.01620545519123931</v>
+      </c>
+      <c r="I15">
+        <v>0.02907650495606121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05905628071790778</v>
+        <v>0.07087186395444128</v>
       </c>
       <c r="C16">
-        <v>0.03517952570453674</v>
+        <v>0.03745932504196661</v>
       </c>
       <c r="D16">
-        <v>-0.06131909144126684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05843248672716155</v>
+      </c>
+      <c r="E16">
+        <v>-0.01507024005926068</v>
+      </c>
+      <c r="F16">
+        <v>0.03625989151001317</v>
+      </c>
+      <c r="G16">
+        <v>-0.0213512695739466</v>
+      </c>
+      <c r="H16">
+        <v>-0.03762555349654118</v>
+      </c>
+      <c r="I16">
+        <v>0.05870696354925546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.06376379026331357</v>
+        <v>0.06302190887261636</v>
       </c>
       <c r="C20">
-        <v>0.01688429797393644</v>
+        <v>0.03156900545434768</v>
       </c>
       <c r="D20">
-        <v>-0.05462670465080034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02837051998415617</v>
+      </c>
+      <c r="E20">
+        <v>-0.008387099980223918</v>
+      </c>
+      <c r="F20">
+        <v>0.03064936844381434</v>
+      </c>
+      <c r="G20">
+        <v>-0.01907618596309473</v>
+      </c>
+      <c r="H20">
+        <v>-0.03983604994724943</v>
+      </c>
+      <c r="I20">
+        <v>0.09426814986982024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03253973861368027</v>
+        <v>0.0264917363605677</v>
       </c>
       <c r="C21">
-        <v>0.007970660629726066</v>
+        <v>0.01868363913987399</v>
       </c>
       <c r="D21">
-        <v>-0.01167612281350144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01073871020262477</v>
+      </c>
+      <c r="E21">
+        <v>-0.0406299659428504</v>
+      </c>
+      <c r="F21">
+        <v>-0.007211230127984804</v>
+      </c>
+      <c r="G21">
+        <v>-0.007088060087041197</v>
+      </c>
+      <c r="H21">
+        <v>0.05865516693237904</v>
+      </c>
+      <c r="I21">
+        <v>0.02253613610686845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.1065446419200536</v>
+        <v>0.0901130788868581</v>
       </c>
       <c r="C22">
-        <v>0.02195801001716613</v>
+        <v>0.05338875947855284</v>
       </c>
       <c r="D22">
-        <v>-0.08934648482240391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02565526468207507</v>
+      </c>
+      <c r="E22">
+        <v>-0.5557219759537502</v>
+      </c>
+      <c r="F22">
+        <v>0.0113153839280018</v>
+      </c>
+      <c r="G22">
+        <v>0.2551863300036999</v>
+      </c>
+      <c r="H22">
+        <v>0.1455877661274936</v>
+      </c>
+      <c r="I22">
+        <v>-0.2498751835239227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.1072245685760804</v>
+        <v>0.09094815715999521</v>
       </c>
       <c r="C23">
-        <v>0.022880010223263</v>
+        <v>0.05347335630010936</v>
       </c>
       <c r="D23">
-        <v>-0.08947480106932788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02681793458326179</v>
+      </c>
+      <c r="E23">
+        <v>-0.5591237907635269</v>
+      </c>
+      <c r="F23">
+        <v>0.01292849429660293</v>
+      </c>
+      <c r="G23">
+        <v>0.2494889577825336</v>
+      </c>
+      <c r="H23">
+        <v>0.145155426061818</v>
+      </c>
+      <c r="I23">
+        <v>-0.252339317990508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0768764725093815</v>
+        <v>0.08112445363531191</v>
       </c>
       <c r="C24">
-        <v>0.04059420333529247</v>
+        <v>0.0346044222654901</v>
       </c>
       <c r="D24">
-        <v>-0.06369679594533807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05560884069965352</v>
+      </c>
+      <c r="E24">
+        <v>-0.02236865726711944</v>
+      </c>
+      <c r="F24">
+        <v>0.04363122439324681</v>
+      </c>
+      <c r="G24">
+        <v>-0.03959448142734933</v>
+      </c>
+      <c r="H24">
+        <v>-0.02505269558494899</v>
+      </c>
+      <c r="I24">
+        <v>0.07222326897034421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.07391989215522876</v>
+        <v>0.07816465801215342</v>
       </c>
       <c r="C25">
-        <v>0.04801847876479242</v>
+        <v>0.02490544802668854</v>
       </c>
       <c r="D25">
-        <v>-0.06251943784232192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05797780618363248</v>
+      </c>
+      <c r="E25">
+        <v>-0.03366039313412852</v>
+      </c>
+      <c r="F25">
+        <v>0.03812931653586819</v>
+      </c>
+      <c r="G25">
+        <v>-0.04187294037849894</v>
+      </c>
+      <c r="H25">
+        <v>-0.02972991115165964</v>
+      </c>
+      <c r="I25">
+        <v>0.07975715167424574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.04660953232162578</v>
+        <v>0.04735145735717978</v>
       </c>
       <c r="C26">
-        <v>0.008560670611522247</v>
+        <v>0.01371064796503491</v>
       </c>
       <c r="D26">
-        <v>-0.01256542682969512</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.009227324241621775</v>
+      </c>
+      <c r="E26">
+        <v>-0.04333914617933166</v>
+      </c>
+      <c r="F26">
+        <v>0.02819667991770923</v>
+      </c>
+      <c r="G26">
+        <v>-0.02312151052816349</v>
+      </c>
+      <c r="H26">
+        <v>-0.03467708114367641</v>
+      </c>
+      <c r="I26">
+        <v>0.009762485586527758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05139452794828196</v>
+        <v>0.07980165885558392</v>
       </c>
       <c r="C28">
-        <v>0.09138467462239643</v>
+        <v>-0.3061520842089901</v>
       </c>
       <c r="D28">
-        <v>0.3033149867804652</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.08132659953538325</v>
+      </c>
+      <c r="E28">
+        <v>-0.01285106102224329</v>
+      </c>
+      <c r="F28">
+        <v>0.04828810372463557</v>
+      </c>
+      <c r="G28">
+        <v>-0.02726320943867303</v>
+      </c>
+      <c r="H28">
+        <v>0.07376661511969398</v>
+      </c>
+      <c r="I28">
+        <v>-0.01060604277483075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.04841099573554902</v>
+        <v>0.051923290871756</v>
       </c>
       <c r="C29">
-        <v>0.0425974916235794</v>
+        <v>-0.005220746777346411</v>
       </c>
       <c r="D29">
-        <v>-0.004851721934228568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03706499603334238</v>
+      </c>
+      <c r="E29">
+        <v>-0.04497940875574705</v>
+      </c>
+      <c r="F29">
+        <v>0.03167805844132979</v>
+      </c>
+      <c r="G29">
+        <v>-0.009549210506757942</v>
+      </c>
+      <c r="H29">
+        <v>-0.08587557786009455</v>
+      </c>
+      <c r="I29">
+        <v>0.0511989798576404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1410798353302995</v>
+        <v>0.1308142386960979</v>
       </c>
       <c r="C30">
-        <v>0.07006279970468376</v>
+        <v>0.03406349894396921</v>
       </c>
       <c r="D30">
-        <v>-0.1022281895630026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07421734949886499</v>
+      </c>
+      <c r="E30">
+        <v>-0.0919270902675056</v>
+      </c>
+      <c r="F30">
+        <v>0.05450460907812917</v>
+      </c>
+      <c r="G30">
+        <v>-0.06556017163832845</v>
+      </c>
+      <c r="H30">
+        <v>0.08038129828085248</v>
+      </c>
+      <c r="I30">
+        <v>0.2342524132560955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04950180794621403</v>
+        <v>0.04760629624939669</v>
       </c>
       <c r="C31">
-        <v>0.02262157110845495</v>
+        <v>0.02496402634488121</v>
       </c>
       <c r="D31">
-        <v>-0.02221039900753422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0297266369589285</v>
+      </c>
+      <c r="E31">
+        <v>-0.0258657106765367</v>
+      </c>
+      <c r="F31">
+        <v>0.01167550384625531</v>
+      </c>
+      <c r="G31">
+        <v>0.005843255910625288</v>
+      </c>
+      <c r="H31">
+        <v>-0.06506228553007547</v>
+      </c>
+      <c r="I31">
+        <v>0.03182785336103875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.03518128143010387</v>
+        <v>0.04223322473072431</v>
       </c>
       <c r="C32">
-        <v>0.01018115405306232</v>
+        <v>-0.003844245893607505</v>
       </c>
       <c r="D32">
-        <v>-0.03547979556379243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01432420144880065</v>
+      </c>
+      <c r="E32">
+        <v>-0.07617902566712319</v>
+      </c>
+      <c r="F32">
+        <v>-0.00723977506427783</v>
+      </c>
+      <c r="G32">
+        <v>-0.02056368426016186</v>
+      </c>
+      <c r="H32">
+        <v>0.0229845053776916</v>
+      </c>
+      <c r="I32">
+        <v>-0.02191914201370837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.09108576274298877</v>
+        <v>0.09487265886020568</v>
       </c>
       <c r="C33">
-        <v>0.03648786325745617</v>
+        <v>0.03434825320852698</v>
       </c>
       <c r="D33">
-        <v>-0.05126760934185336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04569962263120257</v>
+      </c>
+      <c r="E33">
+        <v>-0.03034031545626704</v>
+      </c>
+      <c r="F33">
+        <v>0.003067324407826138</v>
+      </c>
+      <c r="G33">
+        <v>0.002204826797614102</v>
+      </c>
+      <c r="H33">
+        <v>-0.05494225156920913</v>
+      </c>
+      <c r="I33">
+        <v>0.07646240106688737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05979945198938134</v>
+        <v>0.06833679384805516</v>
       </c>
       <c r="C34">
-        <v>0.01821759443881213</v>
+        <v>0.03334701347781194</v>
       </c>
       <c r="D34">
-        <v>-0.05683302815803971</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03584923909683772</v>
+      </c>
+      <c r="E34">
+        <v>-0.02160054510765039</v>
+      </c>
+      <c r="F34">
+        <v>0.02636623842016996</v>
+      </c>
+      <c r="G34">
+        <v>-0.02514071039625478</v>
+      </c>
+      <c r="H34">
+        <v>-0.04667991643767323</v>
+      </c>
+      <c r="I34">
+        <v>0.06080943886569086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.0376285180964432</v>
+        <v>0.03729704154863426</v>
       </c>
       <c r="C35">
-        <v>0.01316630473304475</v>
+        <v>0.01152602425637111</v>
       </c>
       <c r="D35">
-        <v>-0.01874242554402275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01726049100400888</v>
+      </c>
+      <c r="E35">
+        <v>-0.01683857855461922</v>
+      </c>
+      <c r="F35">
+        <v>-0.01120072016074521</v>
+      </c>
+      <c r="G35">
+        <v>-0.001052011014530461</v>
+      </c>
+      <c r="H35">
+        <v>-0.03267619385605107</v>
+      </c>
+      <c r="I35">
+        <v>0.05139777334134391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.03053409767639849</v>
+        <v>0.03125708629608048</v>
       </c>
       <c r="C36">
-        <v>0.01346031869437687</v>
+        <v>0.0102199375287088</v>
       </c>
       <c r="D36">
-        <v>-0.01986377510454052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01719074923003235</v>
+      </c>
+      <c r="E36">
+        <v>-0.03514078031311051</v>
+      </c>
+      <c r="F36">
+        <v>0.03513972387034307</v>
+      </c>
+      <c r="G36">
+        <v>-0.014358236016886</v>
+      </c>
+      <c r="H36">
+        <v>-0.03573514033169987</v>
+      </c>
+      <c r="I36">
+        <v>0.06916991933433987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.065772671067824</v>
+        <v>0.05548935803929114</v>
       </c>
       <c r="C38">
-        <v>0.002473766426406646</v>
+        <v>0.02745537161091346</v>
       </c>
       <c r="D38">
-        <v>0.002495076115707792</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0008801696733789998</v>
+      </c>
+      <c r="E38">
+        <v>-0.04736660023988234</v>
+      </c>
+      <c r="F38">
+        <v>-0.001867651008615393</v>
+      </c>
+      <c r="G38">
+        <v>0.01306249946639725</v>
+      </c>
+      <c r="H38">
+        <v>-0.02556914159507215</v>
+      </c>
+      <c r="I38">
+        <v>0.03836042165671551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.09845420519259324</v>
+        <v>0.1023510493385769</v>
       </c>
       <c r="C39">
-        <v>0.05866111876679286</v>
+        <v>0.02482124330587294</v>
       </c>
       <c r="D39">
-        <v>-0.04666262721716681</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06615183962368168</v>
+      </c>
+      <c r="E39">
+        <v>-0.01239585152406206</v>
+      </c>
+      <c r="F39">
+        <v>0.02438101445648141</v>
+      </c>
+      <c r="G39">
+        <v>-0.03942543611512755</v>
+      </c>
+      <c r="H39">
+        <v>-0.0115299607075168</v>
+      </c>
+      <c r="I39">
+        <v>0.05838571731420267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.0776032232195395</v>
+        <v>0.05604333664489849</v>
       </c>
       <c r="C40">
-        <v>0.02046563730982415</v>
+        <v>0.03430461983268972</v>
       </c>
       <c r="D40">
-        <v>-0.02101664475598776</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01035622763222658</v>
+      </c>
+      <c r="E40">
+        <v>-0.07095004671866655</v>
+      </c>
+      <c r="F40">
+        <v>-0.02122252286456862</v>
+      </c>
+      <c r="G40">
+        <v>-0.04247856315400292</v>
+      </c>
+      <c r="H40">
+        <v>0.06707557837622456</v>
+      </c>
+      <c r="I40">
+        <v>0.22924678915189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.04988848310574925</v>
+        <v>0.04788288247700655</v>
       </c>
       <c r="C41">
-        <v>0.00880452138389148</v>
+        <v>0.02874998556811307</v>
       </c>
       <c r="D41">
-        <v>-0.03230946426355134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01782765291059828</v>
+      </c>
+      <c r="E41">
+        <v>0.001278227671252842</v>
+      </c>
+      <c r="F41">
+        <v>-0.009513400948664695</v>
+      </c>
+      <c r="G41">
+        <v>-0.01313553121718738</v>
+      </c>
+      <c r="H41">
+        <v>-0.03544686599628352</v>
+      </c>
+      <c r="I41">
+        <v>0.03575141356775194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.05744403078320805</v>
+        <v>0.06177663279501398</v>
       </c>
       <c r="C43">
-        <v>0.02883601550474628</v>
+        <v>0.01766397167730771</v>
       </c>
       <c r="D43">
-        <v>-0.01171927421929673</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0332944135998562</v>
+      </c>
+      <c r="E43">
+        <v>-0.01883469582658313</v>
+      </c>
+      <c r="F43">
+        <v>0.02004192425354437</v>
+      </c>
+      <c r="G43">
+        <v>0.0103901848224334</v>
+      </c>
+      <c r="H43">
+        <v>-0.05717051981872395</v>
+      </c>
+      <c r="I43">
+        <v>0.007899478193286595</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0967644919613794</v>
+        <v>0.09468517288365678</v>
       </c>
       <c r="C44">
-        <v>0.01284524611289102</v>
+        <v>0.04182055609559976</v>
       </c>
       <c r="D44">
-        <v>-0.05109883697684455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02573225224633563</v>
+      </c>
+      <c r="E44">
+        <v>-0.08427497988151995</v>
+      </c>
+      <c r="F44">
+        <v>0.09396749161130603</v>
+      </c>
+      <c r="G44">
+        <v>-0.06279302062104432</v>
+      </c>
+      <c r="H44">
+        <v>-0.04488751389257378</v>
+      </c>
+      <c r="I44">
+        <v>0.1118871198591179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02628807894684406</v>
+        <v>0.03919061471224812</v>
       </c>
       <c r="C46">
-        <v>0.02001694143609301</v>
+        <v>0.02009890276631059</v>
       </c>
       <c r="D46">
-        <v>-0.0348658284169983</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03857446144656324</v>
+      </c>
+      <c r="E46">
+        <v>-0.03333310987571078</v>
+      </c>
+      <c r="F46">
+        <v>0.02423296912759748</v>
+      </c>
+      <c r="G46">
+        <v>0.004961851921253115</v>
+      </c>
+      <c r="H46">
+        <v>-0.02933017592513088</v>
+      </c>
+      <c r="I46">
+        <v>0.02152997713748987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.03593532780320884</v>
+        <v>0.04441759885899133</v>
       </c>
       <c r="C47">
-        <v>0.02243174456941857</v>
+        <v>-0.0008608737894581012</v>
       </c>
       <c r="D47">
-        <v>0.00178472325090434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0213736913238851</v>
+      </c>
+      <c r="E47">
+        <v>-0.04766293652455111</v>
+      </c>
+      <c r="F47">
+        <v>-0.0005263704094272081</v>
+      </c>
+      <c r="G47">
+        <v>0.03394883597320768</v>
+      </c>
+      <c r="H47">
+        <v>-0.02363356225850004</v>
+      </c>
+      <c r="I47">
+        <v>0.04970244464567612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.04297869454368729</v>
+        <v>0.04319374744803815</v>
       </c>
       <c r="C48">
-        <v>0.02002690701900465</v>
+        <v>0.008640650339547444</v>
       </c>
       <c r="D48">
-        <v>-0.03025676305426696</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01925692168367014</v>
+      </c>
+      <c r="E48">
+        <v>-0.05060454907316863</v>
+      </c>
+      <c r="F48">
+        <v>0.01010271849813114</v>
+      </c>
+      <c r="G48">
+        <v>-0.008510683756238617</v>
+      </c>
+      <c r="H48">
+        <v>-0.01128765909345616</v>
+      </c>
+      <c r="I48">
+        <v>0.04145107032604074</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>-0.1644027192105464</v>
+        <v>0.1997929060203238</v>
       </c>
       <c r="C49">
-        <v>0.04130107002287137</v>
+        <v>0.00799025068168868</v>
       </c>
       <c r="D49">
-        <v>-0.0248870571710078</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04842694732956906</v>
+      </c>
+      <c r="E49">
+        <v>0.2143098212200079</v>
+      </c>
+      <c r="F49">
+        <v>0.000982585296291312</v>
+      </c>
+      <c r="G49">
+        <v>0.1296218157391526</v>
+      </c>
+      <c r="H49">
+        <v>0.2097235182330321</v>
+      </c>
+      <c r="I49">
+        <v>-0.07322205278189572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04930157724694559</v>
+        <v>0.05094221776872444</v>
       </c>
       <c r="C50">
-        <v>0.03200614244027997</v>
+        <v>0.01982914533526882</v>
       </c>
       <c r="D50">
-        <v>-0.03712555806732974</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0406438146987383</v>
+      </c>
+      <c r="E50">
+        <v>-0.03139469533577318</v>
+      </c>
+      <c r="F50">
+        <v>0.008428320681724296</v>
+      </c>
+      <c r="G50">
+        <v>-0.007812400526998872</v>
+      </c>
+      <c r="H50">
+        <v>-0.06466389693168084</v>
+      </c>
+      <c r="I50">
+        <v>0.02414325072629097</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.02646971197680713</v>
+        <v>0.03484111745501673</v>
       </c>
       <c r="C51">
-        <v>-0.00118767662635601</v>
+        <v>-0.004114979425912184</v>
       </c>
       <c r="D51">
-        <v>0.01007174377843374</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.007303544181764681</v>
+      </c>
+      <c r="E51">
+        <v>0.008597144835507085</v>
+      </c>
+      <c r="F51">
+        <v>0.01124144878368044</v>
+      </c>
+      <c r="G51">
+        <v>0.02213282531094958</v>
+      </c>
+      <c r="H51">
+        <v>0.01772830841015441</v>
+      </c>
+      <c r="I51">
+        <v>-0.01327387065535528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1574427478373907</v>
+        <v>0.1613255268691906</v>
       </c>
       <c r="C53">
-        <v>0.07565860715977485</v>
+        <v>-0.009756212120695379</v>
       </c>
       <c r="D53">
-        <v>0.005327026544129662</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05471228293610354</v>
+      </c>
+      <c r="E53">
+        <v>0.02392644133710619</v>
+      </c>
+      <c r="F53">
+        <v>-0.003636001288702486</v>
+      </c>
+      <c r="G53">
+        <v>0.000114641773454883</v>
+      </c>
+      <c r="H53">
+        <v>-0.2090295690802502</v>
+      </c>
+      <c r="I53">
+        <v>-0.1047810211346817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.06098991126055286</v>
+        <v>0.06168110000014196</v>
       </c>
       <c r="C54">
-        <v>0.02128630899381443</v>
+        <v>0.0008207883402913846</v>
       </c>
       <c r="D54">
-        <v>-0.02120098384185581</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01730226893415277</v>
+      </c>
+      <c r="E54">
+        <v>-0.07283426393464035</v>
+      </c>
+      <c r="F54">
+        <v>0.02859047956220018</v>
+      </c>
+      <c r="G54">
+        <v>-0.04834330750221622</v>
+      </c>
+      <c r="H54">
+        <v>-0.02856873857876682</v>
+      </c>
+      <c r="I54">
+        <v>0.106935324992175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1009243934947538</v>
+        <v>0.1014461565801427</v>
       </c>
       <c r="C55">
-        <v>0.04740868318738113</v>
+        <v>0.008454235785522591</v>
       </c>
       <c r="D55">
-        <v>-0.01584896579027394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04204947659670434</v>
+      </c>
+      <c r="E55">
+        <v>0.001610593304628642</v>
+      </c>
+      <c r="F55">
+        <v>0.01966031115924971</v>
+      </c>
+      <c r="G55">
+        <v>-0.02342908162649985</v>
+      </c>
+      <c r="H55">
+        <v>-0.1610113586269696</v>
+      </c>
+      <c r="I55">
+        <v>-0.02523039373041506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1476355938551981</v>
+        <v>0.1521140036309839</v>
       </c>
       <c r="C56">
-        <v>0.08698291174364692</v>
+        <v>0.003816886908420032</v>
       </c>
       <c r="D56">
-        <v>-0.002092134953583807</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.07272743841307301</v>
+      </c>
+      <c r="E56">
+        <v>0.01319721613758851</v>
+      </c>
+      <c r="F56">
+        <v>0.01762931525507806</v>
+      </c>
+      <c r="G56">
+        <v>-0.0224024394310556</v>
+      </c>
+      <c r="H56">
+        <v>-0.2018748446262412</v>
+      </c>
+      <c r="I56">
+        <v>-0.1115707066153338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1167140038408336</v>
+        <v>0.08772117100660314</v>
       </c>
       <c r="C58">
-        <v>-0.04926457091204808</v>
+        <v>0.06655921367279369</v>
       </c>
       <c r="D58">
-        <v>-0.05852500331454798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.05425118078306388</v>
+      </c>
+      <c r="E58">
+        <v>-0.1262931963547868</v>
+      </c>
+      <c r="F58">
+        <v>0.04442987046145611</v>
+      </c>
+      <c r="G58">
+        <v>0.1198022220874424</v>
+      </c>
+      <c r="H58">
+        <v>0.1813359898124117</v>
+      </c>
+      <c r="I58">
+        <v>0.5721902240230995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1270988217118149</v>
+        <v>0.1517839742083253</v>
       </c>
       <c r="C59">
-        <v>0.09681477597037247</v>
+        <v>-0.345881809236169</v>
       </c>
       <c r="D59">
-        <v>0.4286015036896502</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.1218761758928234</v>
+      </c>
+      <c r="E59">
+        <v>-0.003361234190051029</v>
+      </c>
+      <c r="F59">
+        <v>0.005714348752038994</v>
+      </c>
+      <c r="G59">
+        <v>-0.007502563886654049</v>
+      </c>
+      <c r="H59">
+        <v>-0.02564727446551623</v>
+      </c>
+      <c r="I59">
+        <v>-0.03758057496091611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2120992272542514</v>
+        <v>0.2401068419941426</v>
       </c>
       <c r="C60">
-        <v>0.08450924578320783</v>
+        <v>0.00178360584911669</v>
       </c>
       <c r="D60">
-        <v>-0.00432200372988037</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07423479322725329</v>
+      </c>
+      <c r="E60">
+        <v>0.1477021377302005</v>
+      </c>
+      <c r="F60">
+        <v>0.03392313558813295</v>
+      </c>
+      <c r="G60">
+        <v>0.002005744043611228</v>
+      </c>
+      <c r="H60">
+        <v>0.1439200780129416</v>
+      </c>
+      <c r="I60">
+        <v>-0.1252678886310411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.07834518815258444</v>
+        <v>0.08475500761878761</v>
       </c>
       <c r="C61">
-        <v>0.04515263310649659</v>
+        <v>0.01908211437928447</v>
       </c>
       <c r="D61">
-        <v>-0.03461728489802757</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0528083571788241</v>
+      </c>
+      <c r="E61">
+        <v>-0.01582445225720539</v>
+      </c>
+      <c r="F61">
+        <v>0.02641036442962395</v>
+      </c>
+      <c r="G61">
+        <v>-0.04086228639239117</v>
+      </c>
+      <c r="H61">
+        <v>-0.06730601320919594</v>
+      </c>
+      <c r="I61">
+        <v>0.03952085548685011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>-0.1372015418602488</v>
+        <v>0.1422212968158353</v>
       </c>
       <c r="C62">
-        <v>0.0512295397491885</v>
+        <v>0.02100206624191894</v>
       </c>
       <c r="D62">
-        <v>-0.001384587089195147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04567524095554401</v>
+      </c>
+      <c r="E62">
+        <v>0.04205357364936178</v>
+      </c>
+      <c r="F62">
+        <v>-0.03223759693071752</v>
+      </c>
+      <c r="G62">
+        <v>-0.05687618099161079</v>
+      </c>
+      <c r="H62">
+        <v>-0.1967553305905129</v>
+      </c>
+      <c r="I62">
+        <v>-0.1147698865043056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.05579148683256518</v>
+        <v>0.05176059312620336</v>
       </c>
       <c r="C63">
-        <v>0.01888399664521545</v>
+        <v>0.01135145882062887</v>
       </c>
       <c r="D63">
-        <v>-0.02471001802937962</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01997232798778963</v>
+      </c>
+      <c r="E63">
+        <v>-0.03060096473527594</v>
+      </c>
+      <c r="F63">
+        <v>0.007092352519790446</v>
+      </c>
+      <c r="G63">
+        <v>-0.04931223069836235</v>
+      </c>
+      <c r="H63">
+        <v>-0.02901780377278591</v>
+      </c>
+      <c r="I63">
+        <v>0.03569360181211736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.1097928909820059</v>
+        <v>0.1130473016420264</v>
       </c>
       <c r="C64">
-        <v>0.02797448468636739</v>
+        <v>0.009941644883932827</v>
       </c>
       <c r="D64">
-        <v>-0.01561899427677873</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02519895424365226</v>
+      </c>
+      <c r="E64">
+        <v>-0.04135405014844791</v>
+      </c>
+      <c r="F64">
+        <v>0.05406184082965512</v>
+      </c>
+      <c r="G64">
+        <v>-0.0517438023188739</v>
+      </c>
+      <c r="H64">
+        <v>-0.007681695947441722</v>
+      </c>
+      <c r="I64">
+        <v>0.03437502386274547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.1276725537584529</v>
+        <v>0.1334360704957883</v>
       </c>
       <c r="C65">
-        <v>0.04879602735195571</v>
+        <v>-0.01303150005410579</v>
       </c>
       <c r="D65">
-        <v>-0.01861208680132091</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03885841297908754</v>
+      </c>
+      <c r="E65">
+        <v>0.002112493022931497</v>
+      </c>
+      <c r="F65">
+        <v>0.02995613969242608</v>
+      </c>
+      <c r="G65">
+        <v>-0.08870371511086669</v>
+      </c>
+      <c r="H65">
+        <v>0.2057210554300228</v>
+      </c>
+      <c r="I65">
+        <v>0.05081359559562439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.1545249804214506</v>
+        <v>0.1489320111155495</v>
       </c>
       <c r="C66">
-        <v>0.07658880167978034</v>
+        <v>0.06191299404420145</v>
       </c>
       <c r="D66">
-        <v>-0.09012575452194353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09766801814134907</v>
+      </c>
+      <c r="E66">
+        <v>0.006852168583381632</v>
+      </c>
+      <c r="F66">
+        <v>0.01273106466953052</v>
+      </c>
+      <c r="G66">
+        <v>-0.08216349654355559</v>
+      </c>
+      <c r="H66">
+        <v>-0.07177817878358214</v>
+      </c>
+      <c r="I66">
+        <v>0.1002436776976659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.09293272538449428</v>
+        <v>0.09367168097306446</v>
       </c>
       <c r="C67">
-        <v>0.00697431565070441</v>
+        <v>0.03291613836103823</v>
       </c>
       <c r="D67">
-        <v>-0.00504239566852486</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01219477951659527</v>
+      </c>
+      <c r="E67">
+        <v>-0.007822000267480306</v>
+      </c>
+      <c r="F67">
+        <v>0.00706661985161556</v>
+      </c>
+      <c r="G67">
+        <v>0.02578416587214663</v>
+      </c>
+      <c r="H67">
+        <v>-0.02179940487579867</v>
+      </c>
+      <c r="I67">
+        <v>0.005934497053229462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.04788377951220202</v>
+        <v>0.06645008910169517</v>
       </c>
       <c r="C68">
-        <v>0.05676461965183646</v>
+        <v>-0.2660216155714009</v>
       </c>
       <c r="D68">
-        <v>0.2518242515140739</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.08959674629710987</v>
+      </c>
+      <c r="E68">
+        <v>-0.04355200392120683</v>
+      </c>
+      <c r="F68">
+        <v>0.01696846037785693</v>
+      </c>
+      <c r="G68">
+        <v>0.002676242373734504</v>
+      </c>
+      <c r="H68">
+        <v>-0.01651171446664148</v>
+      </c>
+      <c r="I68">
+        <v>0.01508639843179639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06069862072793988</v>
+        <v>0.05406466004887634</v>
       </c>
       <c r="C69">
-        <v>0.02311293033354678</v>
+        <v>0.01521752565884704</v>
       </c>
       <c r="D69">
-        <v>-0.01835642164944687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01790767425476921</v>
+      </c>
+      <c r="E69">
+        <v>-0.03023937241506669</v>
+      </c>
+      <c r="F69">
+        <v>-0.01430686953373977</v>
+      </c>
+      <c r="G69">
+        <v>0.0001768789429038878</v>
+      </c>
+      <c r="H69">
+        <v>-0.03845390364521755</v>
+      </c>
+      <c r="I69">
+        <v>0.01649045223706366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>-0.009897108710456572</v>
+        <v>0.03193478784467875</v>
       </c>
       <c r="C70">
-        <v>0.002912129209858183</v>
+        <v>-0.005151017389304464</v>
       </c>
       <c r="D70">
-        <v>0.01578478287248428</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.001424971965887341</v>
+      </c>
+      <c r="E70">
+        <v>0.02373188424231542</v>
+      </c>
+      <c r="F70">
+        <v>-0.001949979390098568</v>
+      </c>
+      <c r="G70">
+        <v>0.00839761226922874</v>
+      </c>
+      <c r="H70">
+        <v>0.03000055319793314</v>
+      </c>
+      <c r="I70">
+        <v>0.02363502989203531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.04794877124820156</v>
+        <v>0.07451211675298988</v>
       </c>
       <c r="C71">
-        <v>0.05344580085595477</v>
+        <v>-0.2872562341449817</v>
       </c>
       <c r="D71">
-        <v>0.2851188960030376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.09928483215293896</v>
+      </c>
+      <c r="E71">
+        <v>-0.02940866406096929</v>
+      </c>
+      <c r="F71">
+        <v>0.04406692069852643</v>
+      </c>
+      <c r="G71">
+        <v>0.0005529537656819438</v>
+      </c>
+      <c r="H71">
+        <v>-0.02097195176317171</v>
+      </c>
+      <c r="I71">
+        <v>0.01884443708263622</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1430192128164037</v>
+        <v>0.140097850897569</v>
       </c>
       <c r="C72">
-        <v>0.04669114094253864</v>
+        <v>-0.01232798576312681</v>
       </c>
       <c r="D72">
-        <v>0.02348595904775705</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0129023969637602</v>
+      </c>
+      <c r="E72">
+        <v>0.0214080789402461</v>
+      </c>
+      <c r="F72">
+        <v>-0.1638764638753388</v>
+      </c>
+      <c r="G72">
+        <v>-0.1168285639330311</v>
+      </c>
+      <c r="H72">
+        <v>-0.01272580050416362</v>
+      </c>
+      <c r="I72">
+        <v>-0.01970794209058733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.266020290005244</v>
+        <v>0.2679862882415183</v>
       </c>
       <c r="C73">
-        <v>0.06592922498089353</v>
+        <v>0.07302404449368113</v>
       </c>
       <c r="D73">
-        <v>-0.06428279292061885</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0657168327416776</v>
+      </c>
+      <c r="E73">
+        <v>0.3386310517439134</v>
+      </c>
+      <c r="F73">
+        <v>0.03388231979783829</v>
+      </c>
+      <c r="G73">
+        <v>0.2233081413912027</v>
+      </c>
+      <c r="H73">
+        <v>0.3109770903619388</v>
+      </c>
+      <c r="I73">
+        <v>-0.0467655187779853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.08258268411173925</v>
+        <v>0.09132125958967562</v>
       </c>
       <c r="C74">
-        <v>0.07396353661372169</v>
+        <v>0.004596414992143535</v>
       </c>
       <c r="D74">
-        <v>-0.01206199843230351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0720017821075235</v>
+      </c>
+      <c r="E74">
+        <v>2.972160560905854e-06</v>
+      </c>
+      <c r="F74">
+        <v>0.001884815832098103</v>
+      </c>
+      <c r="G74">
+        <v>0.0274798843428934</v>
+      </c>
+      <c r="H74">
+        <v>-0.1312121606830184</v>
+      </c>
+      <c r="I74">
+        <v>-0.01402467549703115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1120424672465041</v>
+        <v>0.1053662477767241</v>
       </c>
       <c r="C75">
-        <v>0.0447047304632987</v>
+        <v>0.01691777918877618</v>
       </c>
       <c r="D75">
-        <v>-0.00942831303835317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02806779891715353</v>
+      </c>
+      <c r="E75">
+        <v>-0.00475458941408729</v>
+      </c>
+      <c r="F75">
+        <v>-0.005889898463707249</v>
+      </c>
+      <c r="G75">
+        <v>0.005671890673522344</v>
+      </c>
+      <c r="H75">
+        <v>-0.1131050313461974</v>
+      </c>
+      <c r="I75">
+        <v>-0.04840085869819729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1296541685161213</v>
+        <v>0.1357755035362475</v>
       </c>
       <c r="C76">
-        <v>0.07045040137687711</v>
+        <v>0.02120055005391222</v>
       </c>
       <c r="D76">
-        <v>-0.03018906553140506</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07626293031308928</v>
+      </c>
+      <c r="E76">
+        <v>-0.01731948567285971</v>
+      </c>
+      <c r="F76">
+        <v>0.03691905429912039</v>
+      </c>
+      <c r="G76">
+        <v>-0.02323222274099452</v>
+      </c>
+      <c r="H76">
+        <v>-0.2503323000866629</v>
+      </c>
+      <c r="I76">
+        <v>-0.09945190665034571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1322487759844327</v>
+        <v>0.1025762778585373</v>
       </c>
       <c r="C77">
-        <v>-0.02735623463518392</v>
+        <v>0.05861507407014303</v>
       </c>
       <c r="D77">
-        <v>-0.05749121670664648</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.03878447259695208</v>
+      </c>
+      <c r="E77">
+        <v>-0.1058435033551719</v>
+      </c>
+      <c r="F77">
+        <v>0.06777732175189333</v>
+      </c>
+      <c r="G77">
+        <v>-0.7693059585389589</v>
+      </c>
+      <c r="H77">
+        <v>0.3063449705086329</v>
+      </c>
+      <c r="I77">
+        <v>-0.2695613154630288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.1077695761859451</v>
+        <v>0.1514093519553597</v>
       </c>
       <c r="C78">
-        <v>0.02444114098808892</v>
+        <v>0.04445287771117757</v>
       </c>
       <c r="D78">
-        <v>-0.07698194723249954</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06697146752851932</v>
+      </c>
+      <c r="E78">
+        <v>-0.08545372541897445</v>
+      </c>
+      <c r="F78">
+        <v>0.0561429525814743</v>
+      </c>
+      <c r="G78">
+        <v>-0.005646013376874373</v>
+      </c>
+      <c r="H78">
+        <v>0.1152799483789942</v>
+      </c>
+      <c r="I78">
+        <v>0.04048943422285469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1411644123559932</v>
+        <v>0.1438601606354488</v>
       </c>
       <c r="C79">
-        <v>0.0480008188232789</v>
+        <v>0.02555279821234299</v>
       </c>
       <c r="D79">
-        <v>-0.03373597023729927</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04608138562098039</v>
+      </c>
+      <c r="E79">
+        <v>0.01544759428485662</v>
+      </c>
+      <c r="F79">
+        <v>0.01874233185025283</v>
+      </c>
+      <c r="G79">
+        <v>-0.0324679952274415</v>
+      </c>
+      <c r="H79">
+        <v>-0.1837768995369711</v>
+      </c>
+      <c r="I79">
+        <v>-0.06395294402382314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.0331008064248196</v>
+        <v>0.03857314278529135</v>
       </c>
       <c r="C80">
-        <v>0.01634954556207135</v>
+        <v>0.003754809830279953</v>
       </c>
       <c r="D80">
-        <v>-0.02899972891719713</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02211317717101753</v>
+      </c>
+      <c r="E80">
+        <v>0.04014837867231531</v>
+      </c>
+      <c r="F80">
+        <v>-0.00189283390582366</v>
+      </c>
+      <c r="G80">
+        <v>0.01508410826714246</v>
+      </c>
+      <c r="H80">
+        <v>-0.02377542287870036</v>
+      </c>
+      <c r="I80">
+        <v>0.1151180139938869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1330660680597816</v>
+        <v>0.1307876395687455</v>
       </c>
       <c r="C81">
-        <v>0.06295730917119627</v>
+        <v>0.007680967005584871</v>
       </c>
       <c r="D81">
-        <v>-0.01967597681767776</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04869685980396803</v>
+      </c>
+      <c r="E81">
+        <v>-0.003632847740144938</v>
+      </c>
+      <c r="F81">
+        <v>0.0180598261981685</v>
+      </c>
+      <c r="G81">
+        <v>-0.0005611701797430873</v>
+      </c>
+      <c r="H81">
+        <v>-0.1651986590925645</v>
+      </c>
+      <c r="I81">
+        <v>-0.01233841289617704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1317514331757165</v>
+        <v>0.1293249985231626</v>
       </c>
       <c r="C82">
-        <v>0.0617180872119597</v>
+        <v>0.008627925177839021</v>
       </c>
       <c r="D82">
-        <v>-0.01421121923154436</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.05275636239850267</v>
+      </c>
+      <c r="E82">
+        <v>0.01157505577525208</v>
+      </c>
+      <c r="F82">
+        <v>0.03289381958202459</v>
+      </c>
+      <c r="G82">
+        <v>0.007790155896553889</v>
+      </c>
+      <c r="H82">
+        <v>-0.2383252757165017</v>
+      </c>
+      <c r="I82">
+        <v>-0.1058052117966312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06385191545689442</v>
+        <v>0.07865268750712982</v>
       </c>
       <c r="C83">
-        <v>-0.05110895688233085</v>
+        <v>0.04266724750954699</v>
       </c>
       <c r="D83">
-        <v>-0.004441546372648955</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04133886209175832</v>
+      </c>
+      <c r="E83">
+        <v>-0.01170137410915998</v>
+      </c>
+      <c r="F83">
+        <v>0.03702734134396554</v>
+      </c>
+      <c r="G83">
+        <v>0.07579035338295788</v>
+      </c>
+      <c r="H83">
+        <v>0.009351451592820794</v>
+      </c>
+      <c r="I83">
+        <v>0.1242681952948344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.03431365914009062</v>
+        <v>0.03397183950682965</v>
       </c>
       <c r="C84">
-        <v>0.03126656520367473</v>
+        <v>0.02667503767284063</v>
       </c>
       <c r="D84">
-        <v>-0.03735758239950206</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03919081119601107</v>
+      </c>
+      <c r="E84">
+        <v>-0.03403016160138859</v>
+      </c>
+      <c r="F84">
+        <v>-0.03874162580181192</v>
+      </c>
+      <c r="G84">
+        <v>0.03893217132874627</v>
+      </c>
+      <c r="H84">
+        <v>-0.02856747094590122</v>
+      </c>
+      <c r="I84">
+        <v>0.1009046175497561</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1175436789580789</v>
+        <v>0.1211520104650839</v>
       </c>
       <c r="C85">
-        <v>0.02578791999423013</v>
+        <v>0.02777144504675424</v>
       </c>
       <c r="D85">
-        <v>-0.03987176828438471</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02974291512913478</v>
+      </c>
+      <c r="E85">
+        <v>0.004839854134705386</v>
+      </c>
+      <c r="F85">
+        <v>0.04499317358228193</v>
+      </c>
+      <c r="G85">
+        <v>-0.009205998971535649</v>
+      </c>
+      <c r="H85">
+        <v>-0.1638378836808688</v>
+      </c>
+      <c r="I85">
+        <v>-0.06288926314109154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.05653154447014051</v>
+        <v>0.05270644056444731</v>
       </c>
       <c r="C86">
-        <v>0.01911219066118033</v>
+        <v>0.03460844253239487</v>
       </c>
       <c r="D86">
-        <v>-0.06972633949340282</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02750582270241465</v>
+      </c>
+      <c r="E86">
+        <v>-0.02084114297657014</v>
+      </c>
+      <c r="F86">
+        <v>0.0162663053825818</v>
+      </c>
+      <c r="G86">
+        <v>0.02405299891260462</v>
+      </c>
+      <c r="H86">
+        <v>0.04784513235718187</v>
+      </c>
+      <c r="I86">
+        <v>-0.02051166344193281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.1248699771917999</v>
+        <v>0.1275487814750659</v>
       </c>
       <c r="C87">
-        <v>0.06157350645345826</v>
+        <v>0.04844240348991777</v>
       </c>
       <c r="D87">
-        <v>-0.08678179511440497</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07095913804436745</v>
+      </c>
+      <c r="E87">
+        <v>-0.04832991745675667</v>
+      </c>
+      <c r="F87">
+        <v>0.03415873351275261</v>
+      </c>
+      <c r="G87">
+        <v>-0.1605235912547068</v>
+      </c>
+      <c r="H87">
+        <v>0.09117497920186875</v>
+      </c>
+      <c r="I87">
+        <v>0.003891307538911361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05939824301302692</v>
+        <v>0.06515561847428762</v>
       </c>
       <c r="C88">
-        <v>0.02768832444855558</v>
+        <v>0.024740497976526</v>
       </c>
       <c r="D88">
-        <v>-0.02687933871141689</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03978788689263007</v>
+      </c>
+      <c r="E88">
+        <v>-0.0009527402172491153</v>
+      </c>
+      <c r="F88">
+        <v>0.02333601411669396</v>
+      </c>
+      <c r="G88">
+        <v>-0.008062280310138798</v>
+      </c>
+      <c r="H88">
+        <v>-0.03735450109405991</v>
+      </c>
+      <c r="I88">
+        <v>0.03401882420409783</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.07493410903099375</v>
+        <v>0.1147929063234429</v>
       </c>
       <c r="C89">
-        <v>0.09100287481142412</v>
+        <v>-0.3600022513797321</v>
       </c>
       <c r="D89">
-        <v>0.3154384716155747</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.09714631280459836</v>
+      </c>
+      <c r="E89">
+        <v>-0.03860332335821554</v>
+      </c>
+      <c r="F89">
+        <v>0.08400575591128995</v>
+      </c>
+      <c r="G89">
+        <v>0.02054704860597981</v>
+      </c>
+      <c r="H89">
+        <v>-0.01689879434558089</v>
+      </c>
+      <c r="I89">
+        <v>0.08209171218733574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.06632742244762872</v>
+        <v>0.08895286818298501</v>
       </c>
       <c r="C90">
-        <v>0.05514585485643277</v>
+        <v>-0.2782734497737114</v>
       </c>
       <c r="D90">
-        <v>0.2800917966411736</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.1026090036804851</v>
+      </c>
+      <c r="E90">
+        <v>-0.03886738566203965</v>
+      </c>
+      <c r="F90">
+        <v>0.03031048750487649</v>
+      </c>
+      <c r="G90">
+        <v>-0.01462353956561873</v>
+      </c>
+      <c r="H90">
+        <v>0.01955948221974229</v>
+      </c>
+      <c r="I90">
+        <v>0.06972772158382615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.09744335640765628</v>
+        <v>0.09312139798856181</v>
       </c>
       <c r="C91">
-        <v>0.04903937564226007</v>
+        <v>0.01550478759073701</v>
       </c>
       <c r="D91">
-        <v>-0.01569456768760209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03811747176318287</v>
+      </c>
+      <c r="E91">
+        <v>-0.002194362214339351</v>
+      </c>
+      <c r="F91">
+        <v>0.002687285364686467</v>
+      </c>
+      <c r="G91">
+        <v>0.01552888637745117</v>
+      </c>
+      <c r="H91">
+        <v>-0.0846457418653162</v>
+      </c>
+      <c r="I91">
+        <v>-0.03920664129003422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06364238061188222</v>
+        <v>0.08857952141112901</v>
       </c>
       <c r="C92">
-        <v>0.0742102684233243</v>
+        <v>-0.3198672932528768</v>
       </c>
       <c r="D92">
-        <v>0.3211562081635993</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.1033565701396548</v>
+      </c>
+      <c r="E92">
+        <v>-0.03418023681346038</v>
+      </c>
+      <c r="F92">
+        <v>0.04442918018469863</v>
+      </c>
+      <c r="G92">
+        <v>-0.001377638193292966</v>
+      </c>
+      <c r="H92">
+        <v>-0.03221344459511409</v>
+      </c>
+      <c r="I92">
+        <v>0.02833671649090634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.05796449558514553</v>
+        <v>0.0853874404309246</v>
       </c>
       <c r="C93">
-        <v>0.06888317718506164</v>
+        <v>-0.3025739979255976</v>
       </c>
       <c r="D93">
-        <v>0.3048493171692755</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.09360194521877653</v>
+      </c>
+      <c r="E93">
+        <v>-0.005536364006499117</v>
+      </c>
+      <c r="F93">
+        <v>0.02725108442427305</v>
+      </c>
+      <c r="G93">
+        <v>-0.009556102040325264</v>
+      </c>
+      <c r="H93">
+        <v>-0.002076768684017031</v>
+      </c>
+      <c r="I93">
+        <v>0.01314315414964325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1286573732308378</v>
+        <v>0.1240535349929114</v>
       </c>
       <c r="C94">
-        <v>0.0259261393050334</v>
+        <v>0.04127165189906871</v>
       </c>
       <c r="D94">
-        <v>-0.05583501121683265</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02745642240227026</v>
+      </c>
+      <c r="E94">
+        <v>-0.002223812578912561</v>
+      </c>
+      <c r="F94">
+        <v>0.01302323833514004</v>
+      </c>
+      <c r="G94">
+        <v>0.05807948188406502</v>
+      </c>
+      <c r="H94">
+        <v>-0.1085652834454166</v>
+      </c>
+      <c r="I94">
+        <v>-0.05582716310301943</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1215527448861455</v>
+        <v>0.1314367787264655</v>
       </c>
       <c r="C95">
-        <v>0.01424387253894392</v>
+        <v>0.05960035406590566</v>
       </c>
       <c r="D95">
-        <v>-0.07795043150590135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.03433530771532466</v>
+      </c>
+      <c r="E95">
+        <v>-0.008953170729955563</v>
+      </c>
+      <c r="F95">
+        <v>0.04430325046963713</v>
+      </c>
+      <c r="G95">
+        <v>-0.03889155203570133</v>
+      </c>
+      <c r="H95">
+        <v>0.1207571254768147</v>
+      </c>
+      <c r="I95">
+        <v>0.06725938265370505</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>-0.2313713145726372</v>
+        <v>0.1893978120473074</v>
       </c>
       <c r="C97">
-        <v>0.06931410144312823</v>
+        <v>-0.03559374044722576</v>
       </c>
       <c r="D97">
-        <v>0.09487483550496525</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.03597089013042915</v>
+      </c>
+      <c r="E97">
+        <v>-0.07313844098075245</v>
+      </c>
+      <c r="F97">
+        <v>-0.9343175023063144</v>
+      </c>
+      <c r="G97">
+        <v>-0.06091298799411907</v>
+      </c>
+      <c r="H97">
+        <v>0.01356900935385217</v>
+      </c>
+      <c r="I97">
+        <v>0.08534308165455212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.256980235165226</v>
+        <v>0.283586353866986</v>
       </c>
       <c r="C98">
-        <v>0.07498233405975004</v>
+        <v>0.03148821303579123</v>
       </c>
       <c r="D98">
-        <v>-0.03912130494104648</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06686529433393631</v>
+      </c>
+      <c r="E98">
+        <v>0.2652685407747382</v>
+      </c>
+      <c r="F98">
+        <v>-0.01673505140210886</v>
+      </c>
+      <c r="G98">
+        <v>0.2758993925293339</v>
+      </c>
+      <c r="H98">
+        <v>0.1999045275609956</v>
+      </c>
+      <c r="I98">
+        <v>-0.2078572937671269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>-0.3588402122304566</v>
+        <v>0.2340330800340396</v>
       </c>
       <c r="C99">
-        <v>-0.9049407408548218</v>
+        <v>0.3606649104812377</v>
       </c>
       <c r="D99">
-        <v>0.1263115694647496</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.8768132527630683</v>
+      </c>
+      <c r="E99">
+        <v>0.01984667002995838</v>
+      </c>
+      <c r="F99">
+        <v>0.06743807822581788</v>
+      </c>
+      <c r="G99">
+        <v>0.01777332059972741</v>
+      </c>
+      <c r="H99">
+        <v>-0.1001879711848323</v>
+      </c>
+      <c r="I99">
+        <v>-0.01478562757561856</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.04848156734538133</v>
+        <v>0.05198903921889052</v>
       </c>
       <c r="C101">
-        <v>0.04293248712035204</v>
+        <v>-0.005103166911817765</v>
       </c>
       <c r="D101">
-        <v>-0.005087586661229375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03756960660954263</v>
+      </c>
+      <c r="E101">
+        <v>-0.04457993866532439</v>
+      </c>
+      <c r="F101">
+        <v>0.03166129530484888</v>
+      </c>
+      <c r="G101">
+        <v>-0.008261407267413246</v>
+      </c>
+      <c r="H101">
+        <v>-0.08464212147876467</v>
+      </c>
+      <c r="I101">
+        <v>0.05150038147185947</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
